--- a/data/hotels_by_city/Houston/Houston_shard_124.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_124.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10806750-Reviews-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Northwest-Houston-At-Beltway-8.h16127459.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1671 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r600937931-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10806750</t>
+  </si>
+  <si>
+    <t>600937931</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lives up to expectation </t>
+  </si>
+  <si>
+    <t>I booked this hotel because of the reviews in Trip Advisor and location combined and I don’t regret it because it lived up to it’s expectation. Very clean and welcoming place. I will definitely recommend this hotel to my family and friends.  Thanks again to David and the team for a great stay.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r600273738-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>600273738</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Very Good.</t>
+  </si>
+  <si>
+    <t>I had a wonderful time at this hotel.Just walking in there was a pleasant atmosphere and Maria was very helpful and attentive to my needs. She did her best to make sure my stay was comfortable . The room was large and was the main reason I picked this place for a quiet weekend.Everything was working properly and I didn't have any issues. The cleanliness makes you feel like it's a luxury hotel. The beds were very comfortable and so was the sofa.Sharon was very friendly and helped me get some ice cream. Loved it. She was very genuine and made me laugh. Juan was very informative and professional at checkout. He had answers to all my questions.I will return here for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I had a wonderful time at this hotel.Just walking in there was a pleasant atmosphere and Maria was very helpful and attentive to my needs. She did her best to make sure my stay was comfortable . The room was large and was the main reason I picked this place for a quiet weekend.Everything was working properly and I didn't have any issues. The cleanliness makes you feel like it's a luxury hotel. The beds were very comfortable and so was the sofa.Sharon was very friendly and helped me get some ice cream. Loved it. She was very genuine and made me laugh. Juan was very informative and professional at checkout. He had answers to all my questions.I will return here for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r599535943-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599535943</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Awesome staff and rooms!</t>
+  </si>
+  <si>
+    <t>This has been by far the best stay i have had. The employees go above and beyond to make sure we feel welcomed. I will definitely reccommend this property to all my colleagues. Special thanks to David and Alexis for their awesome hospitality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r595384658-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595384658</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel with super friendly staff</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best in the area. The rooms are huge and the hotel has great amenities such as a gym, swimming pool, and customer laundry. The front staff is very helpful and professional and are there to assist you. They offer a free breakfast and the location is convenient. Alexis and Maria made me feel at home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r594958870-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594958870</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Excellence in service and facilities</t>
+  </si>
+  <si>
+    <t>When traveling to Houston for business, we always request to stay at this hotel over the other nearby chains. It is very well apportioned for the business traveler. The staff are amazing and the facility is brand new. It is a quiet hotel and the nearby freeway noise is minimal. The hotel is accessible from an access road or through a parking lot. During rush hour it can be difficult to navigate through the traffic. However, that can be easily avoided by using the side streets.The pool is nice and clean, but it has no shade and faces the west side of the building, which can get very hot in the summer. It also faces a commercial building where people stand around outside to smoke during the day. Some evenings the hotel will have a happy hour with snacks and drinks.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>When traveling to Houston for business, we always request to stay at this hotel over the other nearby chains. It is very well apportioned for the business traveler. The staff are amazing and the facility is brand new. It is a quiet hotel and the nearby freeway noise is minimal. The hotel is accessible from an access road or through a parking lot. During rush hour it can be difficult to navigate through the traffic. However, that can be easily avoided by using the side streets.The pool is nice and clean, but it has no shade and faces the west side of the building, which can get very hot in the summer. It also faces a commercial building where people stand around outside to smoke during the day. Some evenings the hotel will have a happy hour with snacks and drinks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r594841686-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594841686</t>
+  </si>
+  <si>
+    <t>Excellent Hotel with amazingly helpful staff</t>
+  </si>
+  <si>
+    <t>This is a great hotel. David the Manager clearly has an excellent team and this is down to this leadership. From the moment you walk through the door you get the feeling that everybody really cares for this hotel. The staff are brilliant, pleasant engaging and very helpful. Nothing is too much trouble, every time you pass a member of staff, housekeeping, reception they always make eye contact and engage you. Rooms are immaculately clean and spacious, breakfast is good and I would recommend this property to anyone who is in the Houston area. We are going to base our Team here for our US jobs as opposed to Downtown. My thanks to all the staff in particular David, Sharon and Aelicia for making my stay exceptional.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel. David the Manager clearly has an excellent team and this is down to this leadership. From the moment you walk through the door you get the feeling that everybody really cares for this hotel. The staff are brilliant, pleasant engaging and very helpful. Nothing is too much trouble, every time you pass a member of staff, housekeeping, reception they always make eye contact and engage you. Rooms are immaculately clean and spacious, breakfast is good and I would recommend this property to anyone who is in the Houston area. We are going to base our Team here for our US jobs as opposed to Downtown. My thanks to all the staff in particular David, Sharon and Aelicia for making my stay exceptional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r581973202-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581973202</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with great hospitality</t>
+  </si>
+  <si>
+    <t>We were treated like family. It was a very beautiful experience at this hotel and I'll be visiting here whenever I'm in Houston. It is a new facility and they pride themselves among other choice hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r581062141-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581062141</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Best experience ever❤</t>
+  </si>
+  <si>
+    <t>Great customer service!! I can't repeat that enough. I had a horrible experience elsewhere during my trip so I walked in to comfort suites and immediately checked out of the other place. I received great service from beginning to end. Comfort suites is now my go to hotel. Thank you again for all you did for me and my family.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r581059382-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581059382</t>
+  </si>
+  <si>
+    <t>Madi P</t>
+  </si>
+  <si>
+    <t>Being at the comfort suites has been the most comfortable hotel I ever been at the General manger David has been really helpful and just the whole staff has been wonderful to me and made me so welcome and safe . Am so comfortable here . It’s hard to not leaveThank you very much Madalyn</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r580263287-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580263287</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Had a great week stsying at this property. Everytime I stay the staff recognizes me by name. Happy hour is also a Plus after long days of work. My coworkers and I aleays request to stay here when in the Houston área. Special thanks to David for his great attitude and professionalism!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r579965446-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579965446</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>A staff that treats you like family!</t>
+  </si>
+  <si>
+    <t>I absolutely loved my stay here! David the General Manager, Maria, &amp; the cook made us feel like family! The facility is beautiful, the hot breakfast was always fresh, and the location is perfect. If you're in the area and looking for a hotel please give them a try it will be worth it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r579901813-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579901813</t>
+  </si>
+  <si>
+    <t>Marvelous night so peaceful !!</t>
+  </si>
+  <si>
+    <t>Had an amazing night, the employees are very attentive and have great customer service here. We got our room assigned the room was beautiful, it felt great as temperature was perfect!! Breakfast was delicious and the kids enjoyed the pool. Will be returning for more stays here.. I recommend this hotel to all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r579894374-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579894374</t>
+  </si>
+  <si>
+    <t>Graduation celebration!</t>
+  </si>
+  <si>
+    <t>We came for a graduation . The rooms are very clean , the hotel is one of the best that I have stayed in, breakfast was great. David was awesome when checking me out. Even offered to help with my luggages.  Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r579892596-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579892596</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay!</t>
+  </si>
+  <si>
+    <t>Had a very comfortable stay at this hotel. David was awesome and very helpful with directing me to my destinations. The rooms were also very clean and comfortable with a sleeper sofa that was much needed. Thanks for a great day Comfort Suites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r578671183-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578671183</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Fanatastic Hotel</t>
+  </si>
+  <si>
+    <t>A nice place to be cozy and relax the staff is friendly and suitable for overnights and weekly. Hotel is fuly clean and my expectation were met. A subway and places to shop and dine out and happy hour</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r578551906-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578551906</t>
+  </si>
+  <si>
+    <t>Concert stay</t>
+  </si>
+  <si>
+    <t>Thank you for making it a pleasant stay and always being attentive with our stay. You were really helpful especially from us being out of town. You were able to give us a list of restaurant near by and let us know how to get around town!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r577890846-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577890846</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Stay!!!!</t>
+  </si>
+  <si>
+    <t>This hotel definitely exceeded my expectations. Everyone i came across always greeted me and made me feel welcomed. This is a true exaple of hospitality. Got to meet the General Manager. He was checking me in and even offered an upgrade. When in town i know the place to stay at now. Breakfast was also awesome!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r577889308-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577889308</t>
+  </si>
+  <si>
+    <t>Awesome Hotel! Great Staff!</t>
+  </si>
+  <si>
+    <t>This was by far the best hotel I have stayed at! The rooms were great, staff was courteous and always willing to help with any need. The GM, David, was awesome as well. He constantly engaged with me to make sure my stay was going well. Will highly recommend this property. Props to Comfort Suites Northwest Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r576285679-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576285679</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Hate To Write The First Average Review</t>
+  </si>
+  <si>
+    <t>But this wasn't anything special. Solid stay, though. Clean, great internet. Received an upgrade, but the room was smack dab next to the Interstate, with serious road noise. Was difficult to communicate with the staff, so I stayed put. Had to scan my credit card for the full stay mount at check in, which was weird. Then, went to the hotel market for a 16 oz. drink, $2.73! I don't mind paying a premium but I do mind being gouged. I stayed thirsty, my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>But this wasn't anything special. Solid stay, though. Clean, great internet. Received an upgrade, but the room was smack dab next to the Interstate, with serious road noise. Was difficult to communicate with the staff, so I stayed put. Had to scan my credit card for the full stay mount at check in, which was weird. Then, went to the hotel market for a 16 oz. drink, $2.73! I don't mind paying a premium but I do mind being gouged. I stayed thirsty, my friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r576091933-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576091933</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Elite Property Elite Service</t>
+  </si>
+  <si>
+    <t>I have stayed in multiple rooms of this hotel, on multiple occasions... and each stay was for multiple days and nights. This is important because I have more experience than a casual guest might. The hotel was built with luxury grade, high end materials. Whether crossing the lobby, opening a door, or stepping into a shower glass enclosure, the materials you see and touch are solid. The housekeepers are preparing rooms with great attention to detail. The furnishings make these suites stand above other hotels in this price range. The beds are prepared with care and are pillow top style and are some of the softest I've experienced. Tile and carpets here are tasteful and high quality. AC units are wall thermostat controlled and TVs are wall mounted flat screens. A guest's needs are covered with in room refrigerators, coffee makers, and microwaves. Morning breakfast is well apportioned and has something for everyone. The property is bright, well illuminated and secure. Parking is appropriate. The staff from GM David Villegas downward are friendly, professional and efficient. They smile, they enjoy their guests and they look for opportunities to go above and beyond for their guests. Having said that I would score this hotel among the highest in Houston. As someone with occasional lower back issues I will mention that the beds are so soft I do worry in a long term stay that they might be too soft for me....I have stayed in multiple rooms of this hotel, on multiple occasions... and each stay was for multiple days and nights. This is important because I have more experience than a casual guest might. The hotel was built with luxury grade, high end materials. Whether crossing the lobby, opening a door, or stepping into a shower glass enclosure, the materials you see and touch are solid. The housekeepers are preparing rooms with great attention to detail. The furnishings make these suites stand above other hotels in this price range. The beds are prepared with care and are pillow top style and are some of the softest I've experienced. Tile and carpets here are tasteful and high quality. AC units are wall thermostat controlled and TVs are wall mounted flat screens. A guest's needs are covered with in room refrigerators, coffee makers, and microwaves. Morning breakfast is well apportioned and has something for everyone. The property is bright, well illuminated and secure. Parking is appropriate. The staff from GM David Villegas downward are friendly, professional and efficient. They smile, they enjoy their guests and they look for opportunities to go above and beyond for their guests. Having said that I would score this hotel among the highest in Houston. As someone with occasional lower back issues I will mention that the beds are so soft I do worry in a long term stay that they might be too soft for me. For most guests though, these comfortable beds would be reason enough to stay here. I will tell you this hotel is so well rounded, I would stay here and sleep on the floor before staying at an inferior hotel at a higher price. This is the only hotel I visit given my choice. A+MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in multiple rooms of this hotel, on multiple occasions... and each stay was for multiple days and nights. This is important because I have more experience than a casual guest might. The hotel was built with luxury grade, high end materials. Whether crossing the lobby, opening a door, or stepping into a shower glass enclosure, the materials you see and touch are solid. The housekeepers are preparing rooms with great attention to detail. The furnishings make these suites stand above other hotels in this price range. The beds are prepared with care and are pillow top style and are some of the softest I've experienced. Tile and carpets here are tasteful and high quality. AC units are wall thermostat controlled and TVs are wall mounted flat screens. A guest's needs are covered with in room refrigerators, coffee makers, and microwaves. Morning breakfast is well apportioned and has something for everyone. The property is bright, well illuminated and secure. Parking is appropriate. The staff from GM David Villegas downward are friendly, professional and efficient. They smile, they enjoy their guests and they look for opportunities to go above and beyond for their guests. Having said that I would score this hotel among the highest in Houston. As someone with occasional lower back issues I will mention that the beds are so soft I do worry in a long term stay that they might be too soft for me....I have stayed in multiple rooms of this hotel, on multiple occasions... and each stay was for multiple days and nights. This is important because I have more experience than a casual guest might. The hotel was built with luxury grade, high end materials. Whether crossing the lobby, opening a door, or stepping into a shower glass enclosure, the materials you see and touch are solid. The housekeepers are preparing rooms with great attention to detail. The furnishings make these suites stand above other hotels in this price range. The beds are prepared with care and are pillow top style and are some of the softest I've experienced. Tile and carpets here are tasteful and high quality. AC units are wall thermostat controlled and TVs are wall mounted flat screens. A guest's needs are covered with in room refrigerators, coffee makers, and microwaves. Morning breakfast is well apportioned and has something for everyone. The property is bright, well illuminated and secure. Parking is appropriate. The staff from GM David Villegas downward are friendly, professional and efficient. They smile, they enjoy their guests and they look for opportunities to go above and beyond for their guests. Having said that I would score this hotel among the highest in Houston. As someone with occasional lower back issues I will mention that the beds are so soft I do worry in a long term stay that they might be too soft for me. For most guests though, these comfortable beds would be reason enough to stay here. I will tell you this hotel is so well rounded, I would stay here and sleep on the floor before staying at an inferior hotel at a higher price. This is the only hotel I visit given my choice. A+More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r575675590-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575675590</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Very good place</t>
+  </si>
+  <si>
+    <t>Very confortable, some days got wine and cake at the afternoon in the happy hour, that was very good, breakfast also very good, room very clean everyday that i stayed here, with tea and coffee and lemon waterMoreShow less</t>
+  </si>
+  <si>
+    <t>Very confortable, some days got wine and cake at the afternoon in the happy hour, that was very good, breakfast also very good, room very clean everyday that i stayed here, with tea and coffee and lemon waterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r570113291-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570113291</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Fantastic hotel</t>
+  </si>
+  <si>
+    <t>Superb hotel!  Staff very friendly and helpful.  Amenities were perfect and location was useful for work!  Was a home from home with simple but tasty breakfast.  Hotel had everything you could possibly require.  Definitely recommended! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Superb hotel!  Staff very friendly and helpful.  Amenities were perfect and location was useful for work!  Was a home from home with simple but tasty breakfast.  Hotel had everything you could possibly require.  Definitely recommended! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r567554685-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567554685</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>GREATEST HOTEL I'VE EVER STAYED AT</t>
+  </si>
+  <si>
+    <t>This place was incredible. Great staff, great food, and the service was really nice. Very Clean facilities and the gym was awesome. Even though there's a highway near, our room was very quiet and private.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>This place was incredible. Great staff, great food, and the service was really nice. Very Clean facilities and the gym was awesome. Even though there's a highway near, our room was very quiet and private.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r567317270-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567317270</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Business trip, great hotel and nice staff</t>
+  </si>
+  <si>
+    <t>Very friendly staff, very clean rooms and excellent service. Located near major highways. Shopping center 5 minutes away by car. Simple breakfast but good quality. Gym with good exercise machines. Despite being close to motorway the place is very quiet and the wifi works perfectly. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very friendly staff, very clean rooms and excellent service. Located near major highways. Shopping center 5 minutes away by car. Simple breakfast but good quality. Gym with good exercise machines. Despite being close to motorway the place is very quiet and the wifi works perfectly. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r565102224-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565102224</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>There very clean !!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel is so clean and they treat ppl equally I had fun staying there ❤️Much love to them !!.my family had fun and that’s all that matters and breakfast is excellent.Comfort suites has everything most hotels don’t.❤️MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is so clean and they treat ppl equally I had fun staying there ❤️Much love to them !!.my family had fun and that’s all that matters and breakfast is excellent.Comfort suites has everything most hotels don’t.❤️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r563054612-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563054612</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Thanks to the management and staff at Comfort Suites I and a few friends were able to transform the weekend to a Paris t</t>
+  </si>
+  <si>
+    <t>A few of my friends and I celebrated my Aunt’s birthday with a StayCation” (2 night stay Saturday-Monday, February 17-19, 2018) at the Comfort Suites and had a blast!We transformed the double queen room to a Paris theme using her favorite color, purple. With the props and décor that we brought in, the 4 of us found the room and amenities to be very comfortable.The location was great and convenient; we even went to a local theater (Studio Movie Grill) to see Black Panther.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>A few of my friends and I celebrated my Aunt’s birthday with a StayCation” (2 night stay Saturday-Monday, February 17-19, 2018) at the Comfort Suites and had a blast!We transformed the double queen room to a Paris theme using her favorite color, purple. With the props and décor that we brought in, the 4 of us found the room and amenities to be very comfortable.The location was great and convenient; we even went to a local theater (Studio Movie Grill) to see Black Panther.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r563039690-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563039690</t>
+  </si>
+  <si>
+    <t>Absolutely loved my stay!</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was simply amazing. Starting from the Check In, Maria helped us out and wow she's outstanding! I visited most of the places Maria recommended and I can't thank her enough for making my experience so much easier and fun! If I ever come back to Houston, you know I'm coming back here and I'm hoping I see Maria again! The breakfast was delicious, they actually use fresh eggs! The bed was really comfortable just the right amount of firmness and softness. My room and bathroom were spotless and they smelled liked new. I could stay here forever! Overall it was a pleasant and satisfying stay, I highly recommend it to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was simply amazing. Starting from the Check In, Maria helped us out and wow she's outstanding! I visited most of the places Maria recommended and I can't thank her enough for making my experience so much easier and fun! If I ever come back to Houston, you know I'm coming back here and I'm hoping I see Maria again! The breakfast was delicious, they actually use fresh eggs! The bed was really comfortable just the right amount of firmness and softness. My room and bathroom were spotless and they smelled liked new. I could stay here forever! Overall it was a pleasant and satisfying stay, I highly recommend it to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r556385768-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556385768</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>PERFECT</t>
+  </si>
+  <si>
+    <t>The actual venue was very plush.  Good seating. Comfortable for everyone. The surroundings of the hotel in general appeared excellent.  The communal areas were immaculate. Best water pressure I have ever encountered.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>The actual venue was very plush.  Good seating. Comfortable for everyone. The surroundings of the hotel in general appeared excellent.  The communal areas were immaculate. Best water pressure I have ever encountered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r549600566-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549600566</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Excellent hotel. Staff was helpful and friendly. Awesome breakfast! The hotel lobby was neat and clean. We stayed on Christmas day. The Christmas tree was beautiful. The room was everything we wanted. Wished we could have stayed more nights.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r549415768-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549415768</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Best place for resting</t>
+  </si>
+  <si>
+    <t>Very comfortable rooms, all the associates were so kindly and friendly, all the building was very clean besides practically we were the only ones in all the entire hotel, also the prices were very good!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r549212623-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549212623</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Lovely hotel, hopitality, clean comfy and good wifi</t>
+  </si>
+  <si>
+    <t>We only stayed here for one night and without doubt one of the favorite hotels I stayed during my time in Houston area! Upon arrival I was warmly welcomed by the staff and general manager. The staff was extremely friendly, the restaurant very flexible (appreciate this!). Strongly recommended.... YOU WILL BE ENJOYED.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r548767663-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548767663</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Amazingly Comfortable</t>
+  </si>
+  <si>
+    <t>From the rooms to the breakfast everything was comfortable surprisingly clean. More than anything though, the front desk employee did their jobs at the highest level and we really appreciated all their help. Definitely the best in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>From the rooms to the breakfast everything was comfortable surprisingly clean. More than anything though, the front desk employee did their jobs at the highest level and we really appreciated all their help. Definitely the best in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r548289733-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548289733</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Friendliest staff, clean and comfortable room</t>
+  </si>
+  <si>
+    <t>Everyone on staff, from the front desk to the housekeepers, was warm, friendly and welcoming. Funny how that can immediately elevate your mood and comfort level! My room was very clean, comfortable, and felt updated. All the provisions in the room made the stay convenient and a positive experience. Coffee-maker, lots of space to spread out, microwave and fridge, and table/counter space. Breakfast was great; not lacking in anything. Location is super close to main road, so getting out and around is very quick and easy. The next time I need a hotel in Houston, I'm definitely staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Everyone on staff, from the front desk to the housekeepers, was warm, friendly and welcoming. Funny how that can immediately elevate your mood and comfort level! My room was very clean, comfortable, and felt updated. All the provisions in the room made the stay convenient and a positive experience. Coffee-maker, lots of space to spread out, microwave and fridge, and table/counter space. Breakfast was great; not lacking in anything. Location is super close to main road, so getting out and around is very quick and easy. The next time I need a hotel in Houston, I'm definitely staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r547019706-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547019706</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>BEST COMFORTSUITES! SUPERB STAFF!</t>
+  </si>
+  <si>
+    <t>The rooms here are very clean and spacious. The front desk staff was extremely friendly and accommodating, they made sure to find me a room that fit my exact needs. The general manager David was at the front desk when I checked in and he was very attentive and friendly! I can't emphasize enough on how superb the staff is. David keep up the good work! This new hotel is definitely my one and only go-to when I am in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r546895473-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546895473</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel on multiple occasions and have always been very happy with my visits.   The rooms are always very clean and have all the amenities anyone would need while being away from home.  The workout facility and pool are kept up very well.  Free breakfast in the mornings is a bonus. The staff is always very friendly and accommodating.  For anyone visiting this part of Houston, I would highly recommend choosing this Comfort Suites location.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r546846449-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546846449</t>
+  </si>
+  <si>
+    <t>Greatest vacation ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My fiance and i stayed here to get away from home for a coupke of days.  The hotel was fantastic..Breakfast was great.The wifi worked very fast and efficiently.And the beds were phenomenal.Thanks guys </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r545393450-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545393450</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Mr Mendes</t>
+  </si>
+  <si>
+    <t>The rooms had all the basic essentials and the beds were so comfortable. Great service and hospitality from employees. There was a nice sized pool there and a gym with all the good basic equipment. If I'm in Houston again, I'm definitely staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r545390406-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545390406</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>I highly recommend this is an awesome hotel!It has great rooms and the guest service took good care of me and my friends.Andrew Chau was one of the employees that made my stay a star above the rest. He is friendly and accommodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r545384686-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545384686</t>
+  </si>
+  <si>
+    <t>Couldn't Be Better</t>
+  </si>
+  <si>
+    <t>Our group had a fabulous stay here. The rooms were HUGE! It's a new hotel, very clean, beds were phenomenal. Very surprised for what we got for the price! The amenities were easy to find and get to, and the staff was friendly and helpful. Special thanks to Andrew Chau for arranging a fantastic stay for us, every step of the way!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r545138585-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545138585</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Andrew Chau greeted us at the front desk with a bright smile and was very helpful to our large group of people. The rooms were very spacious for the price and hence provided a great place to work and rest.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r544133833-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544133833</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Highly Recommend this Hotel.  Very Clean, comfortable rooms, Excellent Staff, from Front Desk, Housekeeping, Breakfast Crew, and Management. Thank you for making our stay so enjoyable and going above and beyond to accommodate us. Special Thanks to Andrew and Maria and the Manager Mr David.  Will be back soon and will recommend you to everyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r544076495-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544076495</t>
+  </si>
+  <si>
+    <t>Great Hotel and Great Staff</t>
+  </si>
+  <si>
+    <t>I absolutely LOVE this location! No matter how last minute my reservations may be they are always kind and the most helpful. I book at least 7 rooms a month for my staff and I mostly work with Andrew, who is great at his job! I always recommend this location to our out of town guests. Thank you for providing a great hotel for my staff :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r543453976-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543453976</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>new clean quite peaceful</t>
+  </si>
+  <si>
+    <t>If flying out of Bush International, it is hard to find a better place to stay for comfort, price and convenience. This is a brand new facility. Rooms are very nice and bedding is very comfortable. A good breakfast bar with standard Comfort Suites food. Staff was very helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r541875545-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541875545</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Loved this Hotel! It's new!!</t>
+  </si>
+  <si>
+    <t>Absolutely loved this hotel. It still has that new carpet smell. Room was clean as a pin, beds are super comfortable, and nice and roomy. Lots of madden touches in the rooms! Fast elevators, super friendly staff, and the price was right!  10/10 would stay again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Absolutely loved this hotel. It still has that new carpet smell. Room was clean as a pin, beds are super comfortable, and nice and roomy. Lots of madden touches in the rooms! Fast elevators, super friendly staff, and the price was right!  10/10 would stay again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r536414140-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536414140</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Incredibly clean, friendly, welcoming, and comfortable</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel on Saturday, October 22, 2017 and look forward to staying again. I have been traveling a lot for my engineering &amp; tech business and stayed in many hotels and have never seen such a clean facility! It is a brand new hotel and excellent staff; very welcoming and eager to help. Ladies in the hot breakfast area wanted make sure that everyone is very happy. The rooms are very comfortable, clean, and everything is brand new. With very reasonable price, comfort, clean environment, excellent breakfast, welcoming and smiley face staff; this is the hotel I will stay again! Dr. Reg PecanMoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel on Saturday, October 22, 2017 and look forward to staying again. I have been traveling a lot for my engineering &amp; tech business and stayed in many hotels and have never seen such a clean facility! It is a brand new hotel and excellent staff; very welcoming and eager to help. Ladies in the hot breakfast area wanted make sure that everyone is very happy. The rooms are very comfortable, clean, and everything is brand new. With very reasonable price, comfort, clean environment, excellent breakfast, welcoming and smiley face staff; this is the hotel I will stay again! Dr. Reg PecanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r533538565-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533538565</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>All was perfect</t>
+  </si>
+  <si>
+    <t>Service was so great&amp;hotel was very clean and comfortable.Cleanliness and comfort are of utmost importance with me and both these met my expectations.The room was modern.All staff very kind and helpfull.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r533268757-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533268757</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>I really recommend this beautiful hotel because at this hotel everything you are looking for is available. It's also cleaner than other hotels. employees are very kind and helpful. Also it’s super quiet. Go and enjoy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r530539093-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530539093</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Division Mgr</t>
+  </si>
+  <si>
+    <t>This was a pleasant stay. My family was welcomed as soon as we checked in by Andrew at the front desk. He was very nice and helpful on any needs. Always has a pleasant smile and attitude. Staff was also very friendly in greeting and breakfast staff were great as well as the food. We will definitely be back here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>This was a pleasant stay. My family was welcomed as soon as we checked in by Andrew at the front desk. He was very nice and helpful on any needs. Always has a pleasant smile and attitude. Staff was also very friendly in greeting and breakfast staff were great as well as the food. We will definitely be back here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r527293250-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527293250</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Clean room and comfortable bed</t>
+  </si>
+  <si>
+    <t>On a road trip and found this place within our price range.   There's cheaper places to stay but we know you can usually rely on comfort suites to be clean and the bed comfortable, which is important to us.   From check in with Myesha to check out with Andrew it was smooth and easy.  It's obvious the whole staff works hard to keep their 8 month old hotel looking good.  Very roomy.  Good breakfast with all the basics covered.  Slept pleasantly and back on the road quickly.   You will not regret staying here.  Just wished we could've had another night.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded October 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2017</t>
+  </si>
+  <si>
+    <t>On a road trip and found this place within our price range.   There's cheaper places to stay but we know you can usually rely on comfort suites to be clean and the bed comfortable, which is important to us.   From check in with Myesha to check out with Andrew it was smooth and easy.  It's obvious the whole staff works hard to keep their 8 month old hotel looking good.  Very roomy.  Good breakfast with all the basics covered.  Slept pleasantly and back on the road quickly.   You will not regret staying here.  Just wished we could've had another night.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r526336669-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526336669</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Amazing service!!</t>
+  </si>
+  <si>
+    <t>Bianney did a great job at checking my family and I in. She was extremely kind and professional. We could tell she genuinely cared about the comfort of our stay. 10/10 service you guys rock!!!! Thank you so much we will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Bianney did a great job at checking my family and I in. She was extremely kind and professional. We could tell she genuinely cared about the comfort of our stay. 10/10 service you guys rock!!!! Thank you so much we will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r525020708-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525020708</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Stayed here in august for a college orientation and the service was fantastic as was our room. Couldn't have asked for better! Clean rooms and breakfast was amazing. Our room was clean and the environment was friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r520601217-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520601217</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Worth the stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a family, the spacious and clean rooms were perfect for us. The employees are beyond helpful and friendly. Because of the rainy weather and hurricane we had to stay inside for a long time but my kids still had lots of fun in the gym and played with the computers in the lobby. The market place has everything you need, and my kids loved the breakfast. I am very pleased to have stayed in such a clean and welcoming hotel! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r520367739-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520367739</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel and our savior from Harvey!</t>
+  </si>
+  <si>
+    <t>It’s hard to call a place home especially when a disastrous hurricane is rolling around. This hotel has not only provided my family and I a clean and comfortable stay, but also a safe area to be at. You can tell how well the hotel has been built. Even in such a difficult time, the staff were so friendly, breakfast had deliciously various choices (Texas styled waffles where the best!), and the rooms where fresh clean. We couldn’t ask for a better service! I definitely recommend staying here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r520086715-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520086715</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Amazing stay during hurricane harvey!</t>
+  </si>
+  <si>
+    <t>It was a blessing to get a chance to stay at this hotel during hurricane harvey. Not once did I notice a shortage of staff, even though there was due to the flooding. The rooms were amazingly clean and spacious, and the customer service at this hotel beats every other hotel out there. Even during a time of disaster the hotel constantly had more than enough food, and fresh drinks and coffee. Overall the hotel is very welcoming and felt like home. The staff is always going beyond there ways to please the guests and make it an amazing experience for any one who stays!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r513688159-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513688159</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Houston's best kept secret!</t>
+  </si>
+  <si>
+    <t>One of the most outstanding General Manager's at a Choice Hotel, is David at Comfort Suites Houston, TX [txh08] location. First of all, as a) customer..  this particular Hotel is quite exceptional! This location has noticeably improved upon Choice Hotels' standard customer attractions &amp; amenities with this new facility, exceptional customer service, above level maintenance and has undoubtedly become Comfort Suites' best Houston location! Each time I've visited, I've always seen how hard David works to make sure that all the customers are taken care of and that were happy with our choice to stay at his Hotel. His level of customer service is rarely seen these days, let alone in a hotel chain. Its quite refreshing to see someone who is happy to do gr8 job at servicing others and makes a gr8 example for his team. I really dont know where you all at Choice Hotels found him but id suggest you all do what you can to keep him. His professionalism, efficiency and follow-thru levels are golden &amp; should be recognized and treasured! Comfort Suites, you all got this one right!MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>One of the most outstanding General Manager's at a Choice Hotel, is David at Comfort Suites Houston, TX [txh08] location. First of all, as a) customer..  this particular Hotel is quite exceptional! This location has noticeably improved upon Choice Hotels' standard customer attractions &amp; amenities with this new facility, exceptional customer service, above level maintenance and has undoubtedly become Comfort Suites' best Houston location! Each time I've visited, I've always seen how hard David works to make sure that all the customers are taken care of and that were happy with our choice to stay at his Hotel. His level of customer service is rarely seen these days, let alone in a hotel chain. Its quite refreshing to see someone who is happy to do gr8 job at servicing others and makes a gr8 example for his team. I really dont know where you all at Choice Hotels found him but id suggest you all do what you can to keep him. His professionalism, efficiency and follow-thru levels are golden &amp; should be recognized and treasured! Comfort Suites, you all got this one right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r510880378-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510880378</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Loved it!!!!</t>
+  </si>
+  <si>
+    <t>Your experience here will just speechless. We booked a king size bed room just for a night. We were blown to see that there were sofas. Breakfast was delicious. Free computer, printer, and Internet access. Complimentary breakfast. Pool and gym.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Your experience here will just speechless. We booked a king size bed room just for a night. We were blown to see that there were sofas. Breakfast was delicious. Free computer, printer, and Internet access. Complimentary breakfast. Pool and gym.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r510145142-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510145142</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>My Birthday Weekend Aug 4th</t>
+  </si>
+  <si>
+    <t>Omg Once again they made our stay so FANTASTIC the Staff remembered me and my sisters made us feel very Special We Made sure we got our Hugs This Family Love Hugs Maria,Andrew,Sarah,Ms Lisa,and David You All Rock You made our stay so Great and My Birthday was AWESOME THANK YOU THANK YOU We Love you All Comfort Suite #1 In Our BookMoreShow less</t>
+  </si>
+  <si>
+    <t>Omg Once again they made our stay so FANTASTIC the Staff remembered me and my sisters made us feel very Special We Made sure we got our Hugs This Family Love Hugs Maria,Andrew,Sarah,Ms Lisa,and David You All Rock You made our stay so Great and My Birthday was AWESOME THANK YOU THANK YOU We Love you All Comfort Suite #1 In Our BookMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r499098812-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499098812</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>The nicest hotel I have stayed in!</t>
+  </si>
+  <si>
+    <t>I and some co-workers stayed here for 2 weeks, and not only are the rooms clean and comfortable; the staff is super friendly, and helpful.  Maria, Bianney, and Andrew at the front desk are great!  Breakfast was so much better than your average continental...Eggs, sausageor bacon, omelets. I highly recommend this place.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r498239210-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498239210</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Excellent. New, great staff. Andrew was the best and knowledgeable.</t>
+  </si>
+  <si>
+    <t>2017 - This Comfort Suites is the best Comfort Suites or Inn in which I have stayed - cleanest, most comfortable, best staff - see Andrew. It is modern and very appealing. So easy to relax! Staff members take care of you.  I am a woman by myself and take a vacation every chance I get - from VT to CO, CO to FL and back again, CO to TX. I'm on my way from TX to FL now. I feel safe at Choice but especially this one. I've stayed in a lot of hotels and can't believe what you get for the price. For Choice Members - Andrew is the best!  Offered me every perk I was entitled to without me asking! That's a first and very appreciated. Made me feel welcome and pampered. Eye opener - now I stick with Choice Hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>2017 - This Comfort Suites is the best Comfort Suites or Inn in which I have stayed - cleanest, most comfortable, best staff - see Andrew. It is modern and very appealing. So easy to relax! Staff members take care of you.  I am a woman by myself and take a vacation every chance I get - from VT to CO, CO to FL and back again, CO to TX. I'm on my way from TX to FL now. I feel safe at Choice but especially this one. I've stayed in a lot of hotels and can't believe what you get for the price. For Choice Members - Andrew is the best!  Offered me every perk I was entitled to without me asking! That's a first and very appreciated. Made me feel welcome and pampered. Eye opener - now I stick with Choice Hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r497403498-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497403498</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Highly recommend!</t>
+  </si>
+  <si>
+    <t>Excellent service and friendly staff!! Hotel is new and spotless. Manager David upgraded us to a deluxe room for free simply because he was being gracious. Maria the front desk lady was also very friendly and helpful. Room was very spacious and clean and the breakfast was the best out of our 4 day road trip. If the service continues this way, we would definitely want to stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r490159434-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490159434</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>A very good stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Suites Northwest Houston at Beltway 8 for one night. The gentleman that I met upon my arrival was very helpful and respectful. The room is large and very clean and new. The breakfast was great too. The lady that checked me out the next morning (Blunney) was also a very nice and professional. Overall, this hotel is a very good place to stay in with a very reasonable rate. A good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Comfort Suites Northwest Houston at Beltway 8 for one night. The gentleman that I met upon my arrival was very helpful and respectful. The room is large and very clean and new. The breakfast was great too. The lady that checked me out the next morning (Blunney) was also a very nice and professional. Overall, this hotel is a very good place to stay in with a very reasonable rate. A good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r489814918-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489814918</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Awesome service</t>
+  </si>
+  <si>
+    <t>I scheduled a week here.  The service was awesome.  The front desk receptionist - Maria G. was always friendly, courteous and knowledgeable.Andrew was also great when I phoned in for reservations and payment.The hotel was clean and the lobby friendly.The gym has just enough equipment to get the job done for me.The only downside was the pool was outside.  I'm not sure if it was heated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>I scheduled a week here.  The service was awesome.  The front desk receptionist - Maria G. was always friendly, courteous and knowledgeable.Andrew was also great when I phoned in for reservations and payment.The hotel was clean and the lobby friendly.The gym has just enough equipment to get the job done for me.The only downside was the pool was outside.  I'm not sure if it was heated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r489626994-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489626994</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Outstanding customer service, convenient and quiet location, very clean rooms and grounds, and breakfast and coffee were great.  On the second morning of my stay, I needed a passive battery jump to a motorcycle and the staff kindly helped me out with my predicament.  I highly recommend this Comfort Suites hotel in Northwest Houston to anyone staying in Houston as a part of their trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Outstanding customer service, convenient and quiet location, very clean rooms and grounds, and breakfast and coffee were great.  On the second morning of my stay, I needed a passive battery jump to a motorcycle and the staff kindly helped me out with my predicament.  I highly recommend this Comfort Suites hotel in Northwest Houston to anyone staying in Houston as a part of their trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r482606192-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482606192</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and new. The cheerful staff was excellent. Sarah was great and made us feel very welcome. She answered all of our questions with joy. Would not hesitate to stay again. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Office Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and new. The cheerful staff was excellent. Sarah was great and made us feel very welcome. She answered all of our questions with joy. Would not hesitate to stay again. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r482482401-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482482401</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service and beautiful clean rooms</t>
+  </si>
+  <si>
+    <t>Our experience was great, wonderful!.  The staff was very nice and caring. Andrew and Lisa greeted you with a friendly smile.  The breakfast was great. Lisa who prepared breakfast was very nice and made sure we had everything we needed. The rooms were beautiful and very clean. We look forward to returning next year. We were there for a church conference.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Our experience was great, wonderful!.  The staff was very nice and caring. Andrew and Lisa greeted you with a friendly smile.  The breakfast was great. Lisa who prepared breakfast was very nice and made sure we had everything we needed. The rooms were beautiful and very clean. We look forward to returning next year. We were there for a church conference.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r478704658-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478704658</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>New hotel; great customer service!</t>
+  </si>
+  <si>
+    <t>Only stayed here for one night en route to San Antonio, but found it to be a new and attractive property. The layout is open, decor attractive, and our room was nicely appointed. I appreciated the friendliness of the staff, particularly at the front desk when we checked in and out and Lisa who put out breakfast. She went the extra mile and brought a sliced orange to our table.  Parking was convenient, and the parking lot was well lighted.MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Only stayed here for one night en route to San Antonio, but found it to be a new and attractive property. The layout is open, decor attractive, and our room was nicely appointed. I appreciated the friendliness of the staff, particularly at the front desk when we checked in and out and Lisa who put out breakfast. She went the extra mile and brought a sliced orange to our table.  Parking was convenient, and the parking lot was well lighted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r477463990-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477463990</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Top Level CS Property</t>
+  </si>
+  <si>
+    <t>I don't think you can go wrong staying at this property!!  It looks as if it just opened in early 2017.  The fixtures, furnishings etc. are all really nice.  The staff is very friendly and greets you whether you are coming in or going out.  The breakfast is a level above most breakfasts at this level of hotel.  I did not use a gym or pool so can't comment there.  Thanks CS!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Andrew C, Front Desk Agent  at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>I don't think you can go wrong staying at this property!!  It looks as if it just opened in early 2017.  The fixtures, furnishings etc. are all really nice.  The staff is very friendly and greets you whether you are coming in or going out.  The breakfast is a level above most breakfasts at this level of hotel.  I did not use a gym or pool so can't comment there.  Thanks CS!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r476988732-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476988732</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Amazing Spring Break!</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay at the new Comfort Suites! The staff was extremely welcoming and accommodating. When we arrived, Andrew checked us in. He was AMAZING! He made sure that we knew where all of the amenities were in the hotel and what the hotel offered. He even provided us with a list of things to do and places to eat. He even checked in on us as we came and left the hotel to see what we were up to and to see how our outings were. We had no problem with the room. It was very clean and the housekeeping staff was great! The breakfast that is offered is really good and saved us money on at least one meal a day during our 4 day stay. I loved the fitness center as it had everything I needed to complete my normal workout routine. The hotel is in a great location. It is right off of the freeway. We always avoided tolls and did not have to travel more than 35-40 minutes to get to all of the things that we wanted to do. The price for this lovely suite was also amazing! We saved so much money in comparison the other hotels we considered. The Comfort Suites actually offered more for their cheaper price than the Hilton Galleria and Staybridge Suites that we originally considered. I would definitely stay here again and would recommend this hotel...We had a wonderful stay at the new Comfort Suites! The staff was extremely welcoming and accommodating. When we arrived, Andrew checked us in. He was AMAZING! He made sure that we knew where all of the amenities were in the hotel and what the hotel offered. He even provided us with a list of things to do and places to eat. He even checked in on us as we came and left the hotel to see what we were up to and to see how our outings were. We had no problem with the room. It was very clean and the housekeeping staff was great! The breakfast that is offered is really good and saved us money on at least one meal a day during our 4 day stay. I loved the fitness center as it had everything I needed to complete my normal workout routine. The hotel is in a great location. It is right off of the freeway. We always avoided tolls and did not have to travel more than 35-40 minutes to get to all of the things that we wanted to do. The price for this lovely suite was also amazing! We saved so much money in comparison the other hotels we considered. The Comfort Suites actually offered more for their cheaper price than the Hilton Galleria and Staybridge Suites that we originally considered. I would definitely stay here again and would recommend this hotel to anyone who is visiting Houston. You will not be disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay at the new Comfort Suites! The staff was extremely welcoming and accommodating. When we arrived, Andrew checked us in. He was AMAZING! He made sure that we knew where all of the amenities were in the hotel and what the hotel offered. He even provided us with a list of things to do and places to eat. He even checked in on us as we came and left the hotel to see what we were up to and to see how our outings were. We had no problem with the room. It was very clean and the housekeeping staff was great! The breakfast that is offered is really good and saved us money on at least one meal a day during our 4 day stay. I loved the fitness center as it had everything I needed to complete my normal workout routine. The hotel is in a great location. It is right off of the freeway. We always avoided tolls and did not have to travel more than 35-40 minutes to get to all of the things that we wanted to do. The price for this lovely suite was also amazing! We saved so much money in comparison the other hotels we considered. The Comfort Suites actually offered more for their cheaper price than the Hilton Galleria and Staybridge Suites that we originally considered. I would definitely stay here again and would recommend this hotel...We had a wonderful stay at the new Comfort Suites! The staff was extremely welcoming and accommodating. When we arrived, Andrew checked us in. He was AMAZING! He made sure that we knew where all of the amenities were in the hotel and what the hotel offered. He even provided us with a list of things to do and places to eat. He even checked in on us as we came and left the hotel to see what we were up to and to see how our outings were. We had no problem with the room. It was very clean and the housekeeping staff was great! The breakfast that is offered is really good and saved us money on at least one meal a day during our 4 day stay. I loved the fitness center as it had everything I needed to complete my normal workout routine. The hotel is in a great location. It is right off of the freeway. We always avoided tolls and did not have to travel more than 35-40 minutes to get to all of the things that we wanted to do. The price for this lovely suite was also amazing! We saved so much money in comparison the other hotels we considered. The Comfort Suites actually offered more for their cheaper price than the Hilton Galleria and Staybridge Suites that we originally considered. I would definitely stay here again and would recommend this hotel to anyone who is visiting Houston. You will not be disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r476524445-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476524445</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and staff</t>
+  </si>
+  <si>
+    <t>I was in town visiting relatives and originally planned to stay at a different hotel but opted to go with Comfort Suites as I could book the deluxe suite for a great deal and it was closer to my relatives. I'm happy I did as this was one of the nicest hotels I've stayed in (I've stayed in quite a few ranging from 5-star hotels overseas to hotels on the Vegas strip to cheap roadside motels).  The first thing that impressed me was how extremely helpful, informative, and friendly Andrew (the front desk clerk) was and his effort to make sure everything was perfect.  The complimentary breakfast was great, the snack bar had a wide selection which saved a trip to the convenience store across the street, and I had never heard of a complimentary happy hour before.  The pool was well cleaned and had fresh towels stocked nearby. The gym had a good selection of machines and weights, again with fresh towels stocked nearby. There was what appeared to be a business conference on one of the mornings and I couldn't help to think how perfect this location was for business meetings in their conference room. Everything was clean and new since this hotel is quite new. While it will age over time, I'm sure they'll continue to keep the place clean and maintained. I'll be visiting this location again in a couple months.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town visiting relatives and originally planned to stay at a different hotel but opted to go with Comfort Suites as I could book the deluxe suite for a great deal and it was closer to my relatives. I'm happy I did as this was one of the nicest hotels I've stayed in (I've stayed in quite a few ranging from 5-star hotels overseas to hotels on the Vegas strip to cheap roadside motels).  The first thing that impressed me was how extremely helpful, informative, and friendly Andrew (the front desk clerk) was and his effort to make sure everything was perfect.  The complimentary breakfast was great, the snack bar had a wide selection which saved a trip to the convenience store across the street, and I had never heard of a complimentary happy hour before.  The pool was well cleaned and had fresh towels stocked nearby. The gym had a good selection of machines and weights, again with fresh towels stocked nearby. There was what appeared to be a business conference on one of the mornings and I couldn't help to think how perfect this location was for business meetings in their conference room. Everything was clean and new since this hotel is quite new. While it will age over time, I'm sure they'll continue to keep the place clean and maintained. I'll be visiting this location again in a couple months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r475797960-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475797960</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>One of the best I've ever stayed at....</t>
+  </si>
+  <si>
+    <t>After a long day of travel, this new property was a welcome sight. A young lady by the name of Sarah checked me in. She is a ROCK STAR of hotel front desk staff! She found placed me in a great room which was handy on the first floor.Zero complaints on the room. It was large and well laid out. Breakfast the standard Comfort Suites fare which offers tons of options. They also had an omelet offering which I've never seen in other CS locations. Pretty tasty...All in all it was a great stay. I fully recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>After a long day of travel, this new property was a welcome sight. A young lady by the name of Sarah checked me in. She is a ROCK STAR of hotel front desk staff! She found placed me in a great room which was handy on the first floor.Zero complaints on the room. It was large and well laid out. Breakfast the standard Comfort Suites fare which offers tons of options. They also had an omelet offering which I've never seen in other CS locations. Pretty tasty...All in all it was a great stay. I fully recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r474260369-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474260369</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Definition of "over-and-above" service and comfort</t>
+  </si>
+  <si>
+    <t>After a much-delayed flight, we selected this location without any pre-planning. Best accidental choice ever. The hosts were the most welcoming, friendly group ever. The bed was the MOST comfortable hotel bed we've ever experienced. The (free) breakfast was delicious and plentiful. Every need was met or exceeded. And, the price was great.Two days after our stay, we called seeking further information. We were given a perfectly satisfactory answer; however, host Andrew took it upon himself to confirm this information and contact us again to affirm what he had previously stated. In all of our time traveling, we've never seen customer service such as this. Kudos, guys! Keep up the awesome work! If we're ever in the area again, we'll definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>After a much-delayed flight, we selected this location without any pre-planning. Best accidental choice ever. The hosts were the most welcoming, friendly group ever. The bed was the MOST comfortable hotel bed we've ever experienced. The (free) breakfast was delicious and plentiful. Every need was met or exceeded. And, the price was great.Two days after our stay, we called seeking further information. We were given a perfectly satisfactory answer; however, host Andrew took it upon himself to confirm this information and contact us again to affirm what he had previously stated. In all of our time traveling, we've never seen customer service such as this. Kudos, guys! Keep up the awesome work! If we're ever in the area again, we'll definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r469867564-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469867564</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel in economical packge</t>
+  </si>
+  <si>
+    <t>I had stay at this hotel for two weeks. It's really unbelievable, family atmosphere, attractive rooms and atmosphere. Newly  constructed, luxury rooms with extra space. Staff is very cooperative and dedicated to his work. Excellent breakfast, specially I will always remember the hot and fresh omelet by the lady cook in the morning.Thanks all for providing such a nice home like atmosphere.Javed AbbasMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded March 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2017</t>
+  </si>
+  <si>
+    <t>I had stay at this hotel for two weeks. It's really unbelievable, family atmosphere, attractive rooms and atmosphere. Newly  constructed, luxury rooms with extra space. Staff is very cooperative and dedicated to his work. Excellent breakfast, specially I will always remember the hot and fresh omelet by the lady cook in the morning.Thanks all for providing such a nice home like atmosphere.Javed AbbasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r468649141-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468649141</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Awesome service!!</t>
+  </si>
+  <si>
+    <t>I am extremely picky when it comes to hotels but this place is amazing.  The rooms and linen are spotless.   The staff is very friendly and courteous. Convenient amenities. The price was a plus as well!  5 stars all the way!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>I am extremely picky when it comes to hotels but this place is amazing.  The rooms and linen are spotless.   The staff is very friendly and courteous. Convenient amenities. The price was a plus as well!  5 stars all the way!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r468279152-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468279152</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>It's a new hotel opened about a month a go. It's clean, fresh and welcoming. The staff are very professional and attend to the guests needs in a timely manner. Good free  breakfast and location...close to Sam Houston Prkwy, there restaurants around and AMC. We enjoyed our stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>It's a new hotel opened about a month a go. It's clean, fresh and welcoming. The staff are very professional and attend to the guests needs in a timely manner. Good free  breakfast and location...close to Sam Houston Prkwy, there restaurants around and AMC. We enjoyed our stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r467826922-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467826922</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Beautiful property &amp; Great Staff</t>
+  </si>
+  <si>
+    <t>Room were very spacious, the breakfast was wonderful with a wide range of things to choose from! They even have these bags you can take on the go if you cant make breakfast! the front desk staff was the epitome of customer service, David and Sarah were awesome and made my check in experience quick and painless! The lobby was immaculate and the brick behind the comfort suites logo at the front desk was a great touch! Will definitely be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>Room were very spacious, the breakfast was wonderful with a wide range of things to choose from! They even have these bags you can take on the go if you cant make breakfast! the front desk staff was the epitome of customer service, David and Sarah were awesome and made my check in experience quick and painless! The lobby was immaculate and the brick behind the comfort suites logo at the front desk was a great touch! Will definitely be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r465398648-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465398648</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>GREAT Hotel GREAT Management</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here overnight in order to be close to our business event. This hotel has been open for a little while but the staff has kept this place immaculate! The facility has been very well kept. In addition to the facility, the staff themselves were very helpful and accommodating. The manager on duty David Villegas helped my wife and I out tremendously by taking the extra step to not only help supply soap for the wash but wash our clothes for us! He told me to feel free to lay down and he would call me when they were done, which he did. We are very thankful for this because we were both tired last night. The breakfast this morning was also worth mentioning. They prepared real eggs with bell pepper as well as bacon and potatoes. Along with comfort food they have many healthy options as well. The most impressive part of breakfast was the staff. The ladies as well as David the manager were very helpful, happy, warm, and  inviting. Overall 5 stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here overnight in order to be close to our business event. This hotel has been open for a little while but the staff has kept this place immaculate! The facility has been very well kept. In addition to the facility, the staff themselves were very helpful and accommodating. The manager on duty David Villegas helped my wife and I out tremendously by taking the extra step to not only help supply soap for the wash but wash our clothes for us! He told me to feel free to lay down and he would call me when they were done, which he did. We are very thankful for this because we were both tired last night. The breakfast this morning was also worth mentioning. They prepared real eggs with bell pepper as well as bacon and potatoes. Along with comfort food they have many healthy options as well. The most impressive part of breakfast was the staff. The ladies as well as David the manager were very helpful, happy, warm, and  inviting. Overall 5 stars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r465325173-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465325173</t>
+  </si>
+  <si>
+    <t>Amazing Place</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and it is really  outstanding. The check in was fast. Gave us a good room with noise around. Real comfortable beds. The front desk staff is really nice. They even got me breakfast after breakfast hours. This hotel overall should be the standard of how hotels should be. MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel and it is really  outstanding. The check in was fast. Gave us a good room with noise around. Real comfortable beds. The front desk staff is really nice. They even got me breakfast after breakfast hours. This hotel overall should be the standard of how hotels should be. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r465094103-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465094103</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>"Exquisite"</t>
+  </si>
+  <si>
+    <t>So far the best hotel! Way beyond 5 stars. From check in to check out you will feel like you're home. Staff is so friendly welcoming you with a smile every time they see you walk in. We stayed 3 days and it was an amazing experience. Hotel is super clean and beds are so comfortable. I am a clean freak and Comfort suite is one of the cleanest hotels I been in. Restrooms are 100% clean. Had the opportunity to meet David such a friendly person always checking if we needed anything. This hotel met our expectations. If we ever need to stay at a hotel In Houston again Comfort Suites is a priority.MoreShow less</t>
+  </si>
+  <si>
+    <t>So far the best hotel! Way beyond 5 stars. From check in to check out you will feel like you're home. Staff is so friendly welcoming you with a smile every time they see you walk in. We stayed 3 days and it was an amazing experience. Hotel is super clean and beds are so comfortable. I am a clean freak and Comfort suite is one of the cleanest hotels I been in. Restrooms are 100% clean. Had the opportunity to meet David such a friendly person always checking if we needed anything. This hotel met our expectations. If we ever need to stay at a hotel In Houston again Comfort Suites is a priority.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r462591549-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462591549</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome Experience!!!!</t>
+  </si>
+  <si>
+    <t>I was in the Houston area for an event and stayed for two nights, originally I had only planned to stay one night. It was an incredible experience, everyone was welcoming and friendly. The staff has been the nicest people I have met, especially David. He helped me with directions and recommendations around town because I am not from this area. I will definitely recommend people stay here. I plan to return again when in the area. This is the best Comfort Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>I was in the Houston area for an event and stayed for two nights, originally I had only planned to stay one night. It was an incredible experience, everyone was welcoming and friendly. The staff has been the nicest people I have met, especially David. He helped me with directions and recommendations around town because I am not from this area. I will definitely recommend people stay here. I plan to return again when in the area. This is the best Comfort Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r461473739-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461473739</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Andrew at the front desk was very helpful and had a great attitude while serving me and my girlfriend during my stay. He even helped us out with things to do while we were in town. Very knowledgeable about the procedures in the hotel and recommendations around town. Great customer service! The rooms are clean, nice, and spacious as well! The customer service will keep me coming back. So friendly. I recommend everybody should stay here if they are looking for a quick getaway in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Andrew at the front desk was very helpful and had a great attitude while serving me and my girlfriend during my stay. He even helped us out with things to do while we were in town. Very knowledgeable about the procedures in the hotel and recommendations around town. Great customer service! The rooms are clean, nice, and spacious as well! The customer service will keep me coming back. So friendly. I recommend everybody should stay here if they are looking for a quick getaway in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r460564913-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460564913</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Brand New-Amazing Service!!</t>
+  </si>
+  <si>
+    <t>I stay at Comfort Suites almost exclusively when I travel for business, and this is bar none the best experience I've had in a very long time at a Choice hotels property. The beds are very comfortable, and the bathrooms are spotless! They even have a guest reception on Tuesday and Wednesday with free drinks,snacks,and cheese which no other Comfort Suites has, and I've stayed at dozens of locations! David, the GM, went way above and beyond my needs and expectations, as did his front desk employees! They rolled out the red carpet, and continually made sure I had everything I needed for a great stay. This is a brand new location and is spotless both inside and out! If you need to stay in Houston while traveling, look no further than the Northwest-Willowbrook location! You will NOT be disapointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>I stay at Comfort Suites almost exclusively when I travel for business, and this is bar none the best experience I've had in a very long time at a Choice hotels property. The beds are very comfortable, and the bathrooms are spotless! They even have a guest reception on Tuesday and Wednesday with free drinks,snacks,and cheese which no other Comfort Suites has, and I've stayed at dozens of locations! David, the GM, went way above and beyond my needs and expectations, as did his front desk employees! They rolled out the red carpet, and continually made sure I had everything I needed for a great stay. This is a brand new location and is spotless both inside and out! If you need to stay in Houston while traveling, look no further than the Northwest-Willowbrook location! You will NOT be disapointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r459401189-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459401189</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Adventure</t>
+  </si>
+  <si>
+    <t>The hotel was fairly new. Nothing to complain about. I was very clean and staff was friendly and helpful. The contential breakfast was great! They even had waffles shaped like the state Texas. The gentleman at the front desk was kind enough to print out my tailgate tickets for me. I will definitely visit this hotel again!The pic below was taken in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was fairly new. Nothing to complain about. I was very clean and staff was friendly and helpful. The contential breakfast was great! They even had waffles shaped like the state Texas. The gentleman at the front desk was kind enough to print out my tailgate tickets for me. I will definitely visit this hotel again!The pic below was taken in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r458372292-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458372292</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Lovely People</t>
+  </si>
+  <si>
+    <t>Excellent hotel of this class, newer property and kept extremely clean. One night stay while we were in Houston, Texas. The place was spotless, and obviously newly renovated. Also. front desk staff is very friendly and welcoming. While I didn't spend too much time in the hotel, other than sleeping, it left a great impression on me. The breakfast area is spacious and one of the best in a Sam Houston area. I have experienced. Fresh fruit (strawberries, blueberries, oranges, apples, and bananas) in addition to all the other hot and cold items. Everything was excellent! I'll be back to this place and highly recommend to others when in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel of this class, newer property and kept extremely clean. One night stay while we were in Houston, Texas. The place was spotless, and obviously newly renovated. Also. front desk staff is very friendly and welcoming. While I didn't spend too much time in the hotel, other than sleeping, it left a great impression on me. The breakfast area is spacious and one of the best in a Sam Houston area. I have experienced. Fresh fruit (strawberries, blueberries, oranges, apples, and bananas) in addition to all the other hot and cold items. Everything was excellent! I'll be back to this place and highly recommend to others when in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r454766102-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454766102</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible Stay !! </t>
+  </si>
+  <si>
+    <t>I Love The Hotel They Very Spacious Nice and Neat . Front Desk Response real quick they cater to your ever needs they Are Very Kind they have Very Very Delicious Breakfast. They have Very comfortable beds .I Will Recommend Any anyone to come visit I promise you will love the stay and the people.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>I Love The Hotel They Very Spacious Nice and Neat . Front Desk Response real quick they cater to your ever needs they Are Very Kind they have Very Very Delicious Breakfast. They have Very comfortable beds .I Will Recommend Any anyone to come visit I promise you will love the stay and the people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r448411271-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448411271</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great experience! </t>
+  </si>
+  <si>
+    <t>The hotel was very clean. The staff was very friendly! I really liked the shower and the bed was very comfortable. The pillows on the bed were perfect for sleeping! This was my first time traveling to Houston and I was very impressed with the hotel. I will visit again when in Houston! MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, General Manager at Comfort Suites Northwest Houston at Beltway 8, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very clean. The staff was very friendly! I really liked the shower and the bed was very comfortable. The pillows on the bed were perfect for sleeping! This was my first time traveling to Houston and I was very impressed with the hotel. I will visit again when in Houston! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r448320064-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448320064</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Great New Hotel! Hotel was very clean as well as the room. Our stay with family were absolutely perfect. From the kind, courteous, an professional staff, to the meticulous, comfortable rooms and common areas, the exercise facility, the business center, and the breakfast buffet my experience was nothing less than exceptional.Will definitely stay here again when visiting the area, and would recommend to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great New Hotel! Hotel was very clean as well as the room. Our stay with family were absolutely perfect. From the kind, courteous, an professional staff, to the meticulous, comfortable rooms and common areas, the exercise facility, the business center, and the breakfast buffet my experience was nothing less than exceptional.Will definitely stay here again when visiting the area, and would recommend to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10806750-r448304653-Comfort_Suites_Northwest_Houston_at_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448304653</t>
+  </si>
+  <si>
+    <t>Magnificent Stay</t>
+  </si>
+  <si>
+    <t>It was a pleasant stay here. Very attentive staff. In the front desk, Fatih Pecen was very polite and was absolutely great! Excellent hot breakfast in the morning and a wide variety of choices. My room was beautiful, clean, pleasant, and quiet. Awesome hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a pleasant stay here. Very attentive staff. In the front desk, Fatih Pecen was very polite and was absolutely great! Excellent hot breakfast in the morning and a wide variety of choices. My room was beautiful, clean, pleasant, and quiet. Awesome hotel!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2206,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2238,5422 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>144</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>166</v>
+      </c>
+      <c r="X23" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>165</v>
+      </c>
+      <c r="O24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>174</v>
+      </c>
+      <c r="X24" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>174</v>
+      </c>
+      <c r="X25" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>174</v>
+      </c>
+      <c r="X26" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>195</v>
+      </c>
+      <c r="X27" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>200</v>
+      </c>
+      <c r="L28" t="s">
+        <v>201</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" t="s">
+        <v>203</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>195</v>
+      </c>
+      <c r="X28" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>211</v>
+      </c>
+      <c r="X29" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>229</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" t="s">
+        <v>234</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>203</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>236</v>
+      </c>
+      <c r="X33" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>202</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>236</v>
+      </c>
+      <c r="X34" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>202</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>252</v>
+      </c>
+      <c r="K37" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" t="s">
+        <v>259</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>202</v>
+      </c>
+      <c r="O37" t="s">
+        <v>203</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>261</v>
+      </c>
+      <c r="J38" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s">
+        <v>264</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>202</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" t="s">
+        <v>262</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>202</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>274</v>
+      </c>
+      <c r="J41" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" t="s">
+        <v>276</v>
+      </c>
+      <c r="L41" t="s">
+        <v>277</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>202</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>279</v>
+      </c>
+      <c r="J42" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" t="s">
+        <v>253</v>
+      </c>
+      <c r="L42" t="s">
+        <v>281</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>235</v>
+      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" t="s">
+        <v>280</v>
+      </c>
+      <c r="K43" t="s">
+        <v>284</v>
+      </c>
+      <c r="L43" t="s">
+        <v>285</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>235</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>286</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>235</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" t="s">
+        <v>294</v>
+      </c>
+      <c r="L45" t="s">
+        <v>295</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>235</v>
+      </c>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>296</v>
+      </c>
+      <c r="X45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" t="s">
+        <v>301</v>
+      </c>
+      <c r="K46" t="s">
+        <v>302</v>
+      </c>
+      <c r="L46" t="s">
+        <v>303</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>229</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>304</v>
+      </c>
+      <c r="X46" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>307</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>308</v>
+      </c>
+      <c r="J47" t="s">
+        <v>309</v>
+      </c>
+      <c r="K47" t="s">
+        <v>310</v>
+      </c>
+      <c r="L47" t="s">
+        <v>311</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>255</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>313</v>
+      </c>
+      <c r="J48" t="s">
+        <v>314</v>
+      </c>
+      <c r="K48" t="s">
+        <v>315</v>
+      </c>
+      <c r="L48" t="s">
+        <v>316</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>229</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>317</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J49" t="s">
+        <v>319</v>
+      </c>
+      <c r="K49" t="s">
+        <v>320</v>
+      </c>
+      <c r="L49" t="s">
+        <v>321</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>229</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>322</v>
+      </c>
+      <c r="X49" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" t="s">
+        <v>327</v>
+      </c>
+      <c r="K50" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" t="s">
+        <v>329</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" t="s">
+        <v>203</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>331</v>
+      </c>
+      <c r="X50" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>335</v>
+      </c>
+      <c r="J51" t="s">
+        <v>336</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s">
+        <v>338</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>255</v>
+      </c>
+      <c r="O51" t="s">
+        <v>94</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>339</v>
+      </c>
+      <c r="X51" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>342</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>343</v>
+      </c>
+      <c r="J52" t="s">
+        <v>344</v>
+      </c>
+      <c r="K52" t="s">
+        <v>345</v>
+      </c>
+      <c r="L52" t="s">
+        <v>346</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>330</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>348</v>
+      </c>
+      <c r="J53" t="s">
+        <v>349</v>
+      </c>
+      <c r="K53" t="s">
+        <v>350</v>
+      </c>
+      <c r="L53" t="s">
+        <v>351</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>255</v>
+      </c>
+      <c r="O53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J54" t="s">
+        <v>354</v>
+      </c>
+      <c r="K54" t="s">
+        <v>355</v>
+      </c>
+      <c r="L54" t="s">
+        <v>356</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>255</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>357</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>358</v>
+      </c>
+      <c r="J55" t="s">
+        <v>359</v>
+      </c>
+      <c r="K55" t="s">
+        <v>360</v>
+      </c>
+      <c r="L55" t="s">
+        <v>361</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>255</v>
+      </c>
+      <c r="O55" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>363</v>
+      </c>
+      <c r="J56" t="s">
+        <v>364</v>
+      </c>
+      <c r="K56" t="s">
+        <v>365</v>
+      </c>
+      <c r="L56" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>255</v>
+      </c>
+      <c r="O56" t="s">
+        <v>94</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>367</v>
+      </c>
+      <c r="X56" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>371</v>
+      </c>
+      <c r="J57" t="s">
+        <v>372</v>
+      </c>
+      <c r="K57" t="s">
+        <v>373</v>
+      </c>
+      <c r="L57" t="s">
+        <v>374</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>255</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>375</v>
+      </c>
+      <c r="X57" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>379</v>
+      </c>
+      <c r="J58" t="s">
+        <v>380</v>
+      </c>
+      <c r="K58" t="s">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s">
+        <v>382</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>255</v>
+      </c>
+      <c r="O58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>375</v>
+      </c>
+      <c r="X58" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>384</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" t="s">
+        <v>386</v>
+      </c>
+      <c r="K59" t="s">
+        <v>387</v>
+      </c>
+      <c r="L59" t="s">
+        <v>388</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>389</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" t="s">
+        <v>392</v>
+      </c>
+      <c r="K60" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>389</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>397</v>
+      </c>
+      <c r="J61" t="s">
+        <v>398</v>
+      </c>
+      <c r="K61" t="s">
+        <v>399</v>
+      </c>
+      <c r="L61" t="s">
+        <v>400</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" t="s">
+        <v>403</v>
+      </c>
+      <c r="K62" t="s">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s">
+        <v>405</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>406</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>407</v>
+      </c>
+      <c r="X62" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>406</v>
+      </c>
+      <c r="O63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>415</v>
+      </c>
+      <c r="X63" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>419</v>
+      </c>
+      <c r="J64" t="s">
+        <v>420</v>
+      </c>
+      <c r="K64" t="s">
+        <v>421</v>
+      </c>
+      <c r="L64" t="s">
+        <v>422</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>406</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>407</v>
+      </c>
+      <c r="X64" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>425</v>
+      </c>
+      <c r="J65" t="s">
+        <v>426</v>
+      </c>
+      <c r="K65" t="s">
+        <v>427</v>
+      </c>
+      <c r="L65" t="s">
+        <v>428</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>406</v>
+      </c>
+      <c r="O65" t="s">
+        <v>94</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>429</v>
+      </c>
+      <c r="X65" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>432</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>433</v>
+      </c>
+      <c r="J66" t="s">
+        <v>434</v>
+      </c>
+      <c r="K66" t="s">
+        <v>435</v>
+      </c>
+      <c r="L66" t="s">
+        <v>436</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>437</v>
+      </c>
+      <c r="O66" t="s">
+        <v>94</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>429</v>
+      </c>
+      <c r="X66" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>439</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>440</v>
+      </c>
+      <c r="J67" t="s">
+        <v>441</v>
+      </c>
+      <c r="K67" t="s">
+        <v>442</v>
+      </c>
+      <c r="L67" t="s">
+        <v>443</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>437</v>
+      </c>
+      <c r="O67" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>444</v>
+      </c>
+      <c r="X67" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>447</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>448</v>
+      </c>
+      <c r="J68" t="s">
+        <v>449</v>
+      </c>
+      <c r="K68" t="s">
+        <v>450</v>
+      </c>
+      <c r="L68" t="s">
+        <v>451</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>452</v>
+      </c>
+      <c r="O68" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>453</v>
+      </c>
+      <c r="X68" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J69" t="s">
+        <v>458</v>
+      </c>
+      <c r="K69" t="s">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s">
+        <v>460</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>437</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>461</v>
+      </c>
+      <c r="X69" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>464</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>465</v>
+      </c>
+      <c r="J70" t="s">
+        <v>466</v>
+      </c>
+      <c r="K70" t="s">
+        <v>467</v>
+      </c>
+      <c r="L70" t="s">
+        <v>468</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>437</v>
+      </c>
+      <c r="O70" t="s">
+        <v>94</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>461</v>
+      </c>
+      <c r="X70" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>470</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>471</v>
+      </c>
+      <c r="J71" t="s">
+        <v>472</v>
+      </c>
+      <c r="K71" t="s">
+        <v>473</v>
+      </c>
+      <c r="L71" t="s">
+        <v>474</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>437</v>
+      </c>
+      <c r="O71" t="s">
+        <v>66</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>461</v>
+      </c>
+      <c r="X71" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>476</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>477</v>
+      </c>
+      <c r="J72" t="s">
+        <v>478</v>
+      </c>
+      <c r="K72" t="s">
+        <v>479</v>
+      </c>
+      <c r="L72" t="s">
+        <v>480</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>437</v>
+      </c>
+      <c r="O72" t="s">
+        <v>203</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>481</v>
+      </c>
+      <c r="X72" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>484</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>485</v>
+      </c>
+      <c r="J73" t="s">
+        <v>486</v>
+      </c>
+      <c r="K73" t="s">
+        <v>487</v>
+      </c>
+      <c r="L73" t="s">
+        <v>488</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>489</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>490</v>
+      </c>
+      <c r="X73" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>494</v>
+      </c>
+      <c r="J74" t="s">
+        <v>495</v>
+      </c>
+      <c r="K74" t="s">
+        <v>496</v>
+      </c>
+      <c r="L74" t="s">
+        <v>497</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>452</v>
+      </c>
+      <c r="O74" t="s">
+        <v>94</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>498</v>
+      </c>
+      <c r="X74" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>501</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>502</v>
+      </c>
+      <c r="J75" t="s">
+        <v>503</v>
+      </c>
+      <c r="K75" t="s">
+        <v>504</v>
+      </c>
+      <c r="L75" t="s">
+        <v>505</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>452</v>
+      </c>
+      <c r="O75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>498</v>
+      </c>
+      <c r="X75" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>507</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>508</v>
+      </c>
+      <c r="J76" t="s">
+        <v>509</v>
+      </c>
+      <c r="K76" t="s">
+        <v>510</v>
+      </c>
+      <c r="L76" t="s">
+        <v>511</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>489</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>498</v>
+      </c>
+      <c r="X76" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>513</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>514</v>
+      </c>
+      <c r="J77" t="s">
+        <v>515</v>
+      </c>
+      <c r="K77" t="s">
+        <v>516</v>
+      </c>
+      <c r="L77" t="s">
+        <v>517</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>452</v>
+      </c>
+      <c r="O77" t="s">
+        <v>66</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>518</v>
+      </c>
+      <c r="X77" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>521</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>522</v>
+      </c>
+      <c r="J78" t="s">
+        <v>515</v>
+      </c>
+      <c r="K78" t="s">
+        <v>523</v>
+      </c>
+      <c r="L78" t="s">
+        <v>524</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>452</v>
+      </c>
+      <c r="O78" t="s">
+        <v>66</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>525</v>
+      </c>
+      <c r="X78" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>528</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>529</v>
+      </c>
+      <c r="J79" t="s">
+        <v>530</v>
+      </c>
+      <c r="K79" t="s">
+        <v>531</v>
+      </c>
+      <c r="L79" t="s">
+        <v>532</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>452</v>
+      </c>
+      <c r="O79" t="s">
+        <v>94</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>525</v>
+      </c>
+      <c r="X79" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>534</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>535</v>
+      </c>
+      <c r="J80" t="s">
+        <v>536</v>
+      </c>
+      <c r="K80" t="s">
+        <v>537</v>
+      </c>
+      <c r="L80" t="s">
+        <v>538</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>539</v>
+      </c>
+      <c r="X80" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>542</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>543</v>
+      </c>
+      <c r="J81" t="s">
+        <v>544</v>
+      </c>
+      <c r="K81" t="s">
+        <v>545</v>
+      </c>
+      <c r="L81" t="s">
+        <v>546</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>489</v>
+      </c>
+      <c r="O81" t="s">
+        <v>203</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>547</v>
+      </c>
+      <c r="X81" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>550</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>551</v>
+      </c>
+      <c r="J82" t="s">
+        <v>552</v>
+      </c>
+      <c r="K82" t="s">
+        <v>553</v>
+      </c>
+      <c r="L82" t="s">
+        <v>554</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>489</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>555</v>
+      </c>
+      <c r="X82" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>559</v>
+      </c>
+      <c r="J83" t="s">
+        <v>560</v>
+      </c>
+      <c r="K83" t="s">
+        <v>561</v>
+      </c>
+      <c r="L83" t="s">
+        <v>562</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>489</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>555</v>
+      </c>
+      <c r="X83" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>565</v>
+      </c>
+      <c r="J84" t="s">
+        <v>566</v>
+      </c>
+      <c r="K84" t="s">
+        <v>567</v>
+      </c>
+      <c r="L84" t="s">
+        <v>568</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>489</v>
+      </c>
+      <c r="O84" t="s">
+        <v>66</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>569</v>
+      </c>
+      <c r="X84" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>572</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>573</v>
+      </c>
+      <c r="J85" t="s">
+        <v>574</v>
+      </c>
+      <c r="K85" t="s">
+        <v>575</v>
+      </c>
+      <c r="L85" t="s">
+        <v>576</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>577</v>
+      </c>
+      <c r="O85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>578</v>
+      </c>
+      <c r="X85" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>581</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>582</v>
+      </c>
+      <c r="J86" t="s">
+        <v>583</v>
+      </c>
+      <c r="K86" t="s">
+        <v>584</v>
+      </c>
+      <c r="L86" t="s">
+        <v>585</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>577</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>586</v>
+      </c>
+      <c r="X86" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>589</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>590</v>
+      </c>
+      <c r="J87" t="s">
+        <v>583</v>
+      </c>
+      <c r="K87" t="s">
+        <v>591</v>
+      </c>
+      <c r="L87" t="s">
+        <v>592</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>577</v>
+      </c>
+      <c r="O87" t="s">
+        <v>94</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>586</v>
+      </c>
+      <c r="X87" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65300</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>594</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>595</v>
+      </c>
+      <c r="J88" t="s">
+        <v>583</v>
+      </c>
+      <c r="K88" t="s">
+        <v>596</v>
+      </c>
+      <c r="L88" t="s">
+        <v>597</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>577</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>586</v>
+      </c>
+      <c r="X88" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
